--- a/Другое/main.xlsx
+++ b/Другое/main.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Дата</t>
   </si>
@@ -82,13 +82,31 @@
   </si>
   <si>
     <t>Осанка</t>
+  </si>
+  <si>
+    <t>Становая тяга</t>
+  </si>
+  <si>
+    <t>Жим лежа</t>
+  </si>
+  <si>
+    <t>Приседания со штангой</t>
+  </si>
+  <si>
+    <t>Бицепс</t>
+  </si>
+  <si>
+    <t>Трицепс</t>
+  </si>
+  <si>
+    <t>Плечи</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,10 +308,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -501,15 +517,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
@@ -520,19 +536,19 @@
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="19" width="12.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="54" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,30 +586,48 @@
         <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="22.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -611,8 +645,14 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="3">
         <v>45686</v>
       </c>
@@ -640,8 +680,14 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="3">
         <v>45687</v>
       </c>
@@ -665,14 +711,20 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="3">
         <v>45688</v>
       </c>
@@ -694,14 +746,20 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="21.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -719,8 +777,14 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="3">
         <v>45689</v>
       </c>
@@ -747,19 +811,25 @@
       <c r="L7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="3">
         <v>45690</v>
       </c>
@@ -786,34 +856,46 @@
       <c r="L8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="3">
         <v>45691</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -824,33 +906,71 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="3">
         <v>45692</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="3">
         <v>45693</v>
       </c>
@@ -874,8 +994,14 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="3">
         <v>45694</v>
       </c>
@@ -899,8 +1025,14 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="3">
         <v>45695</v>
       </c>
@@ -924,8 +1056,14 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="3">
         <v>45696</v>
       </c>
@@ -949,8 +1087,14 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="3">
         <v>45697</v>
       </c>
@@ -974,8 +1118,14 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="3">
         <v>45698</v>
       </c>
@@ -999,8 +1149,14 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="3">
         <v>45699</v>
       </c>
@@ -1024,8 +1180,14 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="3">
         <v>45700</v>
       </c>
@@ -1049,8 +1211,14 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="3">
         <v>45701</v>
       </c>
@@ -1074,8 +1242,14 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="3">
         <v>45702</v>
       </c>
@@ -1099,8 +1273,14 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="3">
         <v>45703</v>
       </c>
@@ -1124,8 +1304,14 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="3">
         <v>45704</v>
       </c>
@@ -1149,8 +1335,14 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="3">
         <v>45705</v>
       </c>
@@ -1174,8 +1366,14 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="3">
         <v>45706</v>
       </c>
@@ -1199,8 +1397,14 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="3">
         <v>45707</v>
       </c>
@@ -1224,8 +1428,14 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="3">
         <v>45708</v>
       </c>
@@ -1249,8 +1459,14 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="3">
         <v>45709</v>
       </c>
@@ -1274,8 +1490,14 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="3">
         <v>45710</v>
       </c>
@@ -1299,8 +1521,14 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="3">
         <v>45711</v>
       </c>
@@ -1324,8 +1552,14 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="3">
         <v>45712</v>
       </c>
@@ -1349,8 +1583,14 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="3">
         <v>45713</v>
       </c>
@@ -1374,8 +1614,14 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="3">
         <v>45714</v>
       </c>
@@ -1399,8 +1645,14 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="3">
         <v>45715</v>
       </c>
@@ -1424,8 +1676,14 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="3">
         <v>45716</v>
       </c>
@@ -1449,11 +1707,17 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1461,12 +1725,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1474,12 +1738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Другое/main.xlsx
+++ b/Другое/main.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Трекер привычек" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Спорт" sheetId="2" r:id="rId2"/>
+    <sheet name="Программирование" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Дата</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Нет переписок</t>
   </si>
   <si>
-    <t>Спорт</t>
-  </si>
-  <si>
     <t>Чтение 30 мин</t>
   </si>
   <si>
@@ -63,18 +60,6 @@
     <t>Медитация</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
     <t>Пистолетики</t>
   </si>
   <si>
@@ -100,6 +85,39 @@
   </si>
   <si>
     <t>Плечи</t>
+  </si>
+  <si>
+    <t>Плечи - задний пучок</t>
+  </si>
+  <si>
+    <t>Комплекс на жиросжигание</t>
+  </si>
+  <si>
+    <t>Трапеция</t>
+  </si>
+  <si>
+    <t>Social Network</t>
+  </si>
+  <si>
+    <t>Практикум API - повторорение</t>
+  </si>
+  <si>
+    <t>PHP - по книге Васильева</t>
+  </si>
+  <si>
+    <t>ДЗ в академии TOP по JS</t>
+  </si>
+  <si>
+    <t>C# по книге Васильева</t>
+  </si>
+  <si>
+    <t>Материалы TOP по JS</t>
+  </si>
+  <si>
+    <t>Материалы ТОР по PHP</t>
+  </si>
+  <si>
+    <t>Материалы ТОР по C#</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +160,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -210,6 +240,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,11 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,19 +568,13 @@
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="19" width="12.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="54" customHeight="1">
+    <row r="1" spans="1:12" ht="54" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,93 +603,696 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" ht="22.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>45686</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
+        <v>45687</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3">
+        <v>45688</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
+        <v>45689</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
+        <v>45690</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
+        <v>45691</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>45692</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>45693</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>45694</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>45695</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>45696</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>45697</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>45698</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>45699</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>45702</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>45703</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>45704</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>45705</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>45706</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>45707</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>45710</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3">
+        <v>45713</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3">
+        <v>45715</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
+    <col min="7" max="9" width="15.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="42" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3">
+        <v>45686</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -672,33 +1301,15 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>45687</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -707,33 +1318,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>45688</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -742,266 +1335,130 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" ht="21.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>45689</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>45690</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>45691</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>45692</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>45693</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="M11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>45694</v>
       </c>
@@ -1017,53 +1474,31 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>45695</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>45696</v>
       </c>
@@ -1079,22 +1514,8 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>45697</v>
       </c>
@@ -1110,22 +1531,8 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>45698</v>
       </c>
@@ -1141,22 +1548,8 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-    </row>
-    <row r="17" spans="1:27">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>45699</v>
       </c>
@@ -1172,22 +1565,8 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-    </row>
-    <row r="18" spans="1:27">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>45700</v>
       </c>
@@ -1203,22 +1582,8 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:27">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>45701</v>
       </c>
@@ -1234,22 +1599,8 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>45702</v>
       </c>
@@ -1265,22 +1616,8 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>45703</v>
       </c>
@@ -1296,22 +1633,8 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>45704</v>
       </c>
@@ -1327,22 +1650,8 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>45705</v>
       </c>
@@ -1358,22 +1667,8 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>45706</v>
       </c>
@@ -1389,22 +1684,8 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>45707</v>
       </c>
@@ -1420,22 +1701,8 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3">
         <v>45708</v>
       </c>
@@ -1451,22 +1718,8 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>45709</v>
       </c>
@@ -1482,22 +1735,8 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>45710</v>
       </c>
@@ -1513,22 +1752,8 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>45711</v>
       </c>
@@ -1544,22 +1769,8 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>45712</v>
       </c>
@@ -1575,22 +1786,8 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>45713</v>
       </c>
@@ -1606,22 +1803,8 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="3">
         <v>45714</v>
       </c>
@@ -1637,22 +1820,8 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="3">
         <v>45715</v>
       </c>
@@ -1668,22 +1837,8 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="3">
         <v>45716</v>
       </c>
@@ -1699,39 +1854,12 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A6:M6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -1739,12 +1867,452 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="8" width="24.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>45689</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>45690</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>45691</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>45692</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>45693</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>45694</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>45695</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>45696</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>45697</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>45698</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>45699</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
+        <v>45702</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3">
+        <v>45703</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3">
+        <v>45704</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3">
+        <v>45705</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3">
+        <v>45706</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3">
+        <v>45707</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3">
+        <v>45710</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>45713</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3">
+        <v>45715</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Другое/main.xlsx
+++ b/Другое/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Трекер привычек" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="43">
   <si>
     <t>Дата</t>
   </si>
@@ -118,6 +118,33 @@
   </si>
   <si>
     <t>Материалы ТОР по C#</t>
+  </si>
+  <si>
+    <t>API на С#</t>
+  </si>
+  <si>
+    <t>День недели</t>
+  </si>
+  <si>
+    <t>Ср</t>
+  </si>
+  <si>
+    <t>Чт</t>
+  </si>
+  <si>
+    <t>Пт</t>
+  </si>
+  <si>
+    <t>Сб</t>
+  </si>
+  <si>
+    <t>Вс</t>
+  </si>
+  <si>
+    <t>Пн</t>
+  </si>
+  <si>
+    <t>Вт</t>
   </si>
 </sst>
 </file>
@@ -227,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -242,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,217 +580,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="54" customHeight="1">
+    <row r="1" spans="1:13" ht="54" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>45686</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>45687</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>45688</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.75" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>45689</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>45690</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>45691</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -769,37 +821,41 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>45692</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>45693</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -810,43 +866,51 @@
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>45694</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>45695</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -857,12 +921,15 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>45696</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -873,13 +940,18 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>45697</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -889,12 +961,15 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>45698</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -905,31 +980,51 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>45699</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>45700</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -937,60 +1032,96 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>45701</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>45702</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>45703</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>45704</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1001,12 +1132,15 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>45705</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1017,12 +1151,15 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>45706</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1033,12 +1170,15 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>45707</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1049,12 +1189,15 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3">
         <v>45708</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1065,12 +1208,15 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>45709</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1081,12 +1227,15 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>45710</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1097,12 +1246,15 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>45711</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1113,12 +1265,15 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>45712</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1129,12 +1284,15 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>45713</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1145,12 +1303,15 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="3">
         <v>45714</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1161,12 +1322,15 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="3">
         <v>45715</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1177,12 +1341,15 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="3">
         <v>45716</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1193,11 +1360,12 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1206,90 +1374,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
-    <col min="7" max="9" width="15.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="6" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="10.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="6" customWidth="1"/>
+    <col min="8" max="10" width="15.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42" customHeight="1">
+    <row r="1" spans="1:14" ht="42" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>45686</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1301,12 +1476,15 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>45687</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1318,12 +1496,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>45688</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1335,35 +1516,39 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="9" t="s">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>45689</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1373,16 +1558,19 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>45690</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1392,15 +1580,18 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>45691</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1411,98 +1602,113 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>45692</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>45693</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>45694</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>45695</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>45696</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1514,12 +1720,15 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>45697</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1531,12 +1740,15 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>45698</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1545,19 +1757,26 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>45699</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1565,12 +1784,15 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>45700</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1580,31 +1802,41 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>45701</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3">
         <v>45702</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1616,12 +1848,15 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3">
         <v>45703</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1633,12 +1868,15 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3">
         <v>45704</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1650,12 +1888,15 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3">
         <v>45705</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1667,12 +1908,15 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="3">
         <v>45706</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1684,12 +1928,15 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>45707</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1701,12 +1948,15 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3">
         <v>45708</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1718,12 +1968,15 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>45709</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1735,12 +1988,15 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>45710</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1752,12 +2008,15 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>45711</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1769,12 +2028,15 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="3">
         <v>45712</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1786,12 +2048,15 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="3">
         <v>45713</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1803,12 +2068,15 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="3">
         <v>45714</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1820,12 +2088,15 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="3">
         <v>45715</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1837,12 +2108,15 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="3">
         <v>45716</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1854,11 +2128,12 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1867,71 +2142,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="7" customWidth="1"/>
-    <col min="6" max="8" width="24.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" customWidth="1"/>
+    <col min="7" max="10" width="24.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>45689</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1939,12 +2225,16 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>45690</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1952,28 +2242,34 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>45691</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>45692</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1981,18 +2277,22 @@
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>45693</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -2000,47 +2300,67 @@
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>45694</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>45695</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>45696</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2048,12 +2368,16 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>45697</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2061,12 +2385,16 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>45698</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2074,12 +2402,16 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>45699</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2087,12 +2419,16 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>45700</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2100,12 +2436,16 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>45701</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2113,12 +2453,16 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>45702</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2126,25 +2470,37 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>45703</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>45704</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2152,12 +2508,16 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>45705</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2165,12 +2525,16 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>45706</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2178,12 +2542,16 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>45707</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2191,12 +2559,16 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>45708</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2204,12 +2576,16 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>45709</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2217,12 +2593,16 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>45710</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2230,12 +2610,16 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>45711</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2243,12 +2627,16 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>45712</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2256,12 +2644,16 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>45713</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2269,12 +2661,16 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>45714</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2282,12 +2678,16 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>45715</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2295,12 +2695,16 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>45716</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2308,10 +2712,12 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Другое/main.xlsx
+++ b/Другое/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Трекер привычек" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="44">
   <si>
     <t>Дата</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Вт</t>
+  </si>
+  <si>
+    <t>Foodgram</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
@@ -1103,7 +1106,9 @@
       <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
@@ -1122,9 +1127,15 @@
       <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1143,7 +1154,9 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1165,7 +1178,9 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1377,7 +1392,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2142,26 +2157,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="7" customWidth="1"/>
-    <col min="7" max="10" width="24.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="7" customWidth="1"/>
+    <col min="8" max="11" width="24.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2169,34 +2185,37 @@
         <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -2210,15 +2229,16 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>45689</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2227,15 +2247,16 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>45690</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2244,124 +2265,130 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>45691</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>45692</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>45693</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>45694</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>45695</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>45696</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2370,15 +2397,16 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>45697</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2387,15 +2415,16 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>45698</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2404,15 +2433,16 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>45699</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2421,15 +2451,16 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>45700</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2438,15 +2469,16 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>45701</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2455,15 +2487,16 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>45702</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2471,21 +2504,22 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>45703</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2493,15 +2527,16 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>45704</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2510,15 +2545,16 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>45705</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2527,49 +2563,58 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>45706</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>45707</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>45708</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2578,15 +2623,16 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>45709</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2595,15 +2641,16 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>45710</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2612,15 +2659,16 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>45711</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2629,15 +2677,16 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>45712</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2646,15 +2695,16 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>45713</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2663,15 +2713,16 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>45714</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2680,15 +2731,16 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>45715</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2697,15 +2749,16 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>45716</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2714,10 +2767,11 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
